--- a/biology/Botanique/Prunus_caroliniana/Prunus_caroliniana.xlsx
+++ b/biology/Botanique/Prunus_caroliniana/Prunus_caroliniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus caroliniana , connu sous le nom de laurier-cerise de Caroline, est un petit arbre à fleurs à feuilles persistantes originaire du sud-est des États-Unis , du sud de la Caroline du Nord jusqu'à la Floride et vers l'ouest jusqu'au centre du Texas.  L'espèce est introduit dans la nature dans quelques endroits en Californie. 
 Prunus caroliniana ne doit pas être confondu avec son parent européen, Prunus laurocerasus , également appelé laurier-cerise bien que principalement connu sous le nom de English Laurel aux États-Unis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus caroliniana est un arbre à feuilles persistantes de taille petite à moyenne qui atteint environ 5 à 13 mètres de hauteur, avec une largeur d'environ 6 à 9 m. Les feuilles sont vert foncé, alternes, brillante, de 5 à 12 centimètres  de long, Les rameaux sont rouges à brun grisâtre, minces et glabres. Lorsqu'elles sont écrasées, les feuilles et les rameaux verts dégagent un parfum décrit comme ressemblant à celui des cerises au marasquin ou à l'extrait d'amande.
 Les fleurs parfumées de couleur blanche sont en grappes (bouquets pédonculés) de 5 à 8 cm de long de la fin de l'hiver au début du printemps. Les fruits sont de minuscules cerises noires d'environ 1 cm de diamètre, qui persistent tout l'hiver et sont principalement consommées par les oiseaux (février-avril).
